--- a/biology/Médecine/Paritaprévir/Paritaprévir.xlsx
+++ b/biology/Médecine/Paritaprévir/Paritaprévir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paritapr%C3%A9vir</t>
+          <t>Paritaprévir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le paritaprévir (ABT-450) est une molécule en cours de test, à type d'inhibiteur de protéase ciblant la NS3/4A (nonstructural 3/4A) du virus de l'hépatite C.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paritapr%C3%A9vir</t>
+          <t>Paritaprévir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le paritaprévir inhibe la protéase NS3-4A, nécessaire à la réplication du virus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le paritaprévir inhibe la protéase NS3-4A, nécessaire à la réplication du virus.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paritapr%C3%A9vir</t>
+          <t>Paritaprévir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est donné avec le ritanovir[3], ce dernier inhibant le métabolisme de l'ABT-450 et permettant de meilleurs taux sanguins pour une même dose ingérée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est donné avec le ritanovir, ce dernier inhibant le métabolisme de l'ABT-450 et permettant de meilleurs taux sanguins pour une même dose ingérée.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paritapr%C3%A9vir</t>
+          <t>Paritaprévir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En association avec l'ombitasvir, le dasabuvir et la ribavirine, en une cure de douze semaines, il entraîne une très bonne réponse (négativation de la virémie) chez les patients ayant une hépatite C de type 1, non compliquée, que cela soit en primo intention[4] ou après échec d'un traitement par peginterferon–ribavirine[5]. Des résultats identiques sont retrouvés chez les patients ayant une cirrhose post-hépatitique[6]. L'utilité du rajout de la ribavirine est essentiellement en cas d'hépatite C de type 1a[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En association avec l'ombitasvir, le dasabuvir et la ribavirine, en une cure de douze semaines, il entraîne une très bonne réponse (négativation de la virémie) chez les patients ayant une hépatite C de type 1, non compliquée, que cela soit en primo intention ou après échec d'un traitement par peginterferon–ribavirine. Des résultats identiques sont retrouvés chez les patients ayant une cirrhose post-hépatitique. L'utilité du rajout de la ribavirine est essentiellement en cas d'hépatite C de type 1a.
 </t>
         </is>
       </c>
